--- a/tests/testcases.xlsx
+++ b/tests/testcases.xlsx
@@ -519,11 +519,6 @@
           <t>3. 期望3</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>韩志超</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -570,11 +565,6 @@
           <t>3. 期望3</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>韩志超</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -621,11 +611,6 @@
           <t>3. 期望3</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>韩志超</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -672,11 +657,6 @@
           <t>3. 期望3</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>韩志超</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -723,11 +703,6 @@
           <t>3. 期望3</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>韩志超</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -764,11 +739,6 @@
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>韩志超</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -809,11 +779,6 @@
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>韩志超</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -855,11 +820,6 @@
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>韩志超</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -903,11 +863,6 @@
       <c r="H10" t="inlineStr">
         <is>
           <t>2. 期望2</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>韩志超</t>
         </is>
       </c>
     </row>
